--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>810521.5430392937</v>
+        <v>808264.5211302106</v>
       </c>
     </row>
     <row r="7">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>84.46248060854769</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>106.7209824064456</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -820,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>132.9342137328509</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.6228437375559</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>247.4073273774619</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>8.546296656423063</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>362.4006936231285</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>298.3540381929893</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>91.28928585505024</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>56.4957681082041</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>133.2205257453334</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.1060278085107</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873204</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.150146252006677</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>74.75769145492352</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292658</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>87.88968838155317</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>113.5103646250812</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>13.21455103355472</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>17.25588147840202</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2296,7 +2296,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>120.6353666620235</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>164.9102792253208</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>74.75769145492396</v>
       </c>
       <c r="C28" t="n">
-        <v>18.93482921064978</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>257.3680670594456</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>253.5994003151028</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3193,13 +3193,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>114.1627038799791</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6353666620239</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>178.7757248935319</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706227</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259153</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143258</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>87.87589738164193</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430364</v>
+        <v>188.7127700430365</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877637</v>
+        <v>218.4926939877638</v>
       </c>
       <c r="U37" t="n">
-        <v>285.1555829172074</v>
+        <v>285.1555829172075</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354225</v>
+        <v>251.0813880354226</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481855</v>
+        <v>198.1806383821494</v>
       </c>
       <c r="X37" t="n">
-        <v>217.5828380554898</v>
+        <v>224.6534001006318</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>217.5283980636894</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.9570160514543</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3794,7 +3794,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800353</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1061.976198199964</v>
+        <v>1313.879478346266</v>
       </c>
       <c r="C2" t="n">
-        <v>1061.976198199964</v>
+        <v>944.9169614058544</v>
       </c>
       <c r="D2" t="n">
-        <v>703.7104995932134</v>
+        <v>586.651262799104</v>
       </c>
       <c r="E2" t="n">
-        <v>703.7104995932134</v>
+        <v>586.651262799104</v>
       </c>
       <c r="F2" t="n">
-        <v>292.7245948036058</v>
+        <v>175.6653580094964</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>161.7419539480873</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>161.7419539480873</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W2" t="n">
-        <v>2212.181128500977</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.715370239897</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="Y2" t="n">
-        <v>1448.576038264086</v>
+        <v>1700.479318410388</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>357.2197656505683</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>357.2197656505683</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2090.618650386199</v>
+        <v>1472.812633166741</v>
       </c>
       <c r="C5" t="n">
-        <v>1721.656133445787</v>
+        <v>1472.812633166741</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.390434839037</v>
+        <v>1114.546934559991</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.390434839037</v>
+        <v>728.7586819617466</v>
       </c>
       <c r="F5" t="n">
-        <v>952.4045300494295</v>
+        <v>721.8131812125431</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>303.84937311073</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656313</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656313</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2090.618650386199</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X5" t="n">
-        <v>2090.618650386199</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="Y5" t="n">
-        <v>2090.618650386199</v>
+        <v>1859.412473230863</v>
       </c>
     </row>
     <row r="6">
@@ -4641,16 +4641,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W7" t="n">
-        <v>184.0273259635867</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="X7" t="n">
-        <v>184.0273259635867</v>
+        <v>62.57560470564027</v>
       </c>
       <c r="Y7" t="n">
-        <v>184.0273259635867</v>
+        <v>62.57560470564027</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D8" t="n">
-        <v>819.7159451700466</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>433.9276925718023</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036444</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757142</v>
+        <v>2092.477155601805</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.54400078133</v>
+        <v>1791.109440255352</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>296.2710210862863</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036444</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>579.982325640618</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>365.6939024587807</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>365.6939024587807</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>365.6939024587807</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>111.0094142528938</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>111.0094142528938</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>477.919485916526</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
@@ -5027,10 +5027,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5039,25 +5039,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1009.454103530278</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1460.488316778687</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.328657580449</v>
+        <v>2439.038619608516</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807095</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750059</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
         <v>4719.034655862919</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5139,19 +5139,19 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.6966825353826</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C13" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5200,49 +5200,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N13" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1866.513008862231</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1577.410141987875</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1322.725653781988</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>1033.308483745027</v>
+        <v>619.8559841413804</v>
       </c>
       <c r="X13" t="n">
-        <v>805.3189328470096</v>
+        <v>619.8559841413804</v>
       </c>
       <c r="Y13" t="n">
-        <v>653.6966825353826</v>
+        <v>399.0634049978503</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5255,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5279,43 +5279,43 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2337.214217867999</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>2996.062531649192</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5361,7 +5361,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>952.888179421027</v>
+        <v>171.0738540998323</v>
       </c>
       <c r="C16" t="n">
-        <v>951.7264155301116</v>
+        <v>171.0738540998323</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>171.0738540998323</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5437,10 +5437,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
         <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1644.746393431757</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1644.746393431757</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1644.746393431757</v>
+        <v>909.2731541783403</v>
       </c>
       <c r="W16" t="n">
-        <v>1355.329223394797</v>
+        <v>619.8559841413797</v>
       </c>
       <c r="X16" t="n">
-        <v>1355.329223394797</v>
+        <v>391.8664332433624</v>
       </c>
       <c r="Y16" t="n">
-        <v>1134.536644251267</v>
+        <v>171.0738540998323</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5492,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089263</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5519,19 +5519,19 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3484.372139114998</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3987.344609994335</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089897</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468572</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>498.9312815832557</v>
+        <v>210.2179684131229</v>
       </c>
       <c r="C19" t="n">
-        <v>410.1538185715858</v>
+        <v>210.2179684131229</v>
       </c>
       <c r="D19" t="n">
-        <v>410.1538185715858</v>
+        <v>210.2179684131229</v>
       </c>
       <c r="E19" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5677,7 +5677,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.789495593986</v>
+        <v>909.2731541783405</v>
       </c>
       <c r="W19" t="n">
-        <v>901.3723255570255</v>
+        <v>619.85598414138</v>
       </c>
       <c r="X19" t="n">
-        <v>901.3723255570255</v>
+        <v>391.8664332433626</v>
       </c>
       <c r="Y19" t="n">
-        <v>680.5797464134954</v>
+        <v>391.8664332433626</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,46 +5750,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>291.9947530764103</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>625.8141267662568</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1076.848340014666</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193957</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E21" t="n">
         <v>487.9678785494859</v>
@@ -5820,7 +5820,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>260.9043113423046</v>
+        <v>412.4103109586944</v>
       </c>
       <c r="C22" t="n">
-        <v>260.9043113423046</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D22" t="n">
         <v>243.4741280307875</v>
@@ -5908,10 +5908,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208126</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838521</v>
+        <v>874.5404723472668</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858347</v>
+        <v>646.5509214492495</v>
       </c>
       <c r="Y22" t="n">
-        <v>260.9043113423046</v>
+        <v>425.7583423057194</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,46 +5987,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3931.363334276589</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4326.137700633767</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E24" t="n">
         <v>487.9678785494859</v>
@@ -6057,7 +6057,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>506.8067350374723</v>
+        <v>217.41494016761</v>
       </c>
       <c r="C25" t="n">
-        <v>506.8067350374723</v>
+        <v>217.41494016761</v>
       </c>
       <c r="D25" t="n">
-        <v>506.8067350374723</v>
+        <v>217.41494016761</v>
       </c>
       <c r="E25" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6148,7 +6148,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,7 +6160,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1789.767426483168</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1568.000811052694</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1278.897944178337</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1024.21345597245</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W25" t="n">
-        <v>734.7962859354897</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X25" t="n">
-        <v>506.8067350374723</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="Y25" t="n">
-        <v>506.8067350374723</v>
+        <v>399.0634049978497</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
@@ -6224,28 +6224,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1617.665844847779</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6324,7 +6324,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6333,16 +6333,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
         <v>1346.568408282342</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>260.9043113423041</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208122</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838515</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858342</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y28" t="n">
-        <v>260.9043113423041</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6467,19 +6467,19 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1085.926319971173</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2064.476622801002</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
         <v>4719.034655862919</v>
@@ -6488,25 +6488,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
@@ -6540,7 +6540,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
         <v>427.5025029193589</v>
@@ -6558,22 +6558,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>391.8948606428723</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C31" t="n">
-        <v>391.8948606428723</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D31" t="n">
-        <v>241.7782212305366</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6625,7 +6625,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6634,37 +6634,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1384.778648927267</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1130.09416072138</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W31" t="n">
-        <v>840.6769906844198</v>
+        <v>653.1121437590446</v>
       </c>
       <c r="X31" t="n">
-        <v>612.6874397864025</v>
+        <v>425.1225928610272</v>
       </c>
       <c r="Y31" t="n">
-        <v>391.8948606428723</v>
+        <v>425.1225928610272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>451.8458144277729</v>
@@ -6704,46 +6704,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1898.858917622687</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2432.390822294612</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2979.169639353394</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232731</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
         <v>794.2006632320242</v>
@@ -6801,16 +6801,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6871,7 +6871,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
@@ -6880,28 +6880,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1841.027603599674</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1619.2609881692</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1330.158121294844</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V34" t="n">
-        <v>1075.473633088957</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W34" t="n">
-        <v>786.0564630519963</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X34" t="n">
-        <v>558.0669121539789</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>558.0669121539789</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6914,22 +6914,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
@@ -6938,43 +6938,43 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3175.513123659585</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>4055.47777398904</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>503.6059614362434</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>503.6059614362434</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>503.6059614362434</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>503.6059614362434</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>503.6059614362434</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>336.9700493447054</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>191.8197870963061</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308515</v>
+        <v>141.7293596308513</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152492</v>
+        <v>346.762235315249</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992668</v>
+        <v>664.3677264992666</v>
       </c>
       <c r="M37" t="n">
-        <v>1009.570464834337</v>
+        <v>1009.570464834336</v>
       </c>
       <c r="N37" t="n">
         <v>1352.024534275723</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.399825931658</v>
+        <v>1652.399825931657</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.053019100839</v>
+        <v>1886.053019100838</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988875</v>
+        <v>1964.709007988874</v>
       </c>
       <c r="R37" t="n">
-        <v>1964.709007988875</v>
+        <v>1875.945475280145</v>
       </c>
       <c r="S37" t="n">
-        <v>1774.090048349444</v>
+        <v>1685.326515640714</v>
       </c>
       <c r="T37" t="n">
-        <v>1553.390357452713</v>
+        <v>1464.626824743983</v>
       </c>
       <c r="U37" t="n">
-        <v>1265.3544151121</v>
+        <v>1176.590882403369</v>
       </c>
       <c r="V37" t="n">
-        <v>1011.736851439956</v>
+        <v>922.9733187312252</v>
       </c>
       <c r="W37" t="n">
-        <v>723.3866059367382</v>
+        <v>722.7908557189531</v>
       </c>
       <c r="X37" t="n">
-        <v>503.6059614362434</v>
+        <v>495.8682293546786</v>
       </c>
       <c r="Y37" t="n">
-        <v>503.6059614362434</v>
+        <v>276.1425747448913</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7172,28 +7172,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N38" t="n">
-        <v>3196.009277420604</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7251,10 +7251,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
         <v>794.200663232024</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215057</v>
+        <v>788.515167821505</v>
       </c>
       <c r="C40" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416713</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774095</v>
+        <v>564.361611377409</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430892</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932521</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160441</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819753</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7333,7 +7333,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
         <v>800.7468040499223</v>
@@ -7354,28 +7354,28 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R40" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937959</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036713</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
@@ -7412,16 +7412,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O41" t="n">
         <v>3482.142110232732</v>
@@ -7442,13 +7442,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215055</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416719</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932527</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160447</v>
+        <v>244.204632516045</v>
       </c>
       <c r="H43" t="n">
         <v>145.4370786819758</v>
@@ -7570,7 +7570,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L43" t="n">
         <v>800.7468040499223</v>
@@ -7588,13 +7588,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
@@ -7649,25 +7649,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>972.9616805754501</v>
       </c>
       <c r="L44" t="n">
-        <v>1898.858917622688</v>
+        <v>1837.480496228805</v>
       </c>
       <c r="M44" t="n">
-        <v>2432.390822294613</v>
+        <v>2816.030799058633</v>
       </c>
       <c r="N44" t="n">
-        <v>2979.169639353395</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215055</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416719</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
@@ -7807,10 +7807,10 @@
         <v>187.1890521477367</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7825,13 +7825,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
         <v>1967.452490122057</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8538,13 +8538,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783527</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>226.0494095077361</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8936,19 +8936,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>315.1679217109319</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>195.2514630883926</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9167,22 +9167,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>23.80814351663651</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>7.630896635343873</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>201.9664098701126</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>80.35488666587528</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,22 +9872,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>384.814589375506</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,22 +10115,22 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>16.8005733590889</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>189.7998007892644</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>344.7025836476828</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,10 +10361,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>285.7011105564207</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10586,28 +10586,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>20.70318561719034</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>344.7025836476849</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,19 +11060,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>251.1867816683983</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11297,13 +11297,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>189.1883762200311</v>
       </c>
       <c r="L44" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>46.61145443660388</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>68.47862554358406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>166.0966748466212</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>71.67627119164565</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,22 +23701,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>79.35713271707466</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>32.92359802148793</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>166.6174291483826</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>131.3595915398103</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>25.79859598454571</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>24.85874610612106</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C28" t="n">
-        <v>148.3119918879781</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,7 +24616,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,7 +24853,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24886,25 +24886,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>28.84377114616728</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>32.92359802148823</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25081,13 +25081,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>75.60632145146282</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935318</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102223</v>
+        <v>166.1905658102224</v>
       </c>
       <c r="D37" t="n">
-        <v>147.5592177298068</v>
+        <v>147.559217729807</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581637</v>
+        <v>145.3777073581638</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345257</v>
+        <v>144.3647927345258</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.9695529706228</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>143.6987596259154</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>95.29616512143269</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164182</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>87.28610466603621</v>
       </c>
       <c r="X37" t="n">
-        <v>7.070562045141855</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>5.258016244624741e-13</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1070591.760006863</v>
+        <v>1070591.760006864</v>
       </c>
     </row>
     <row r="5">
@@ -26323,37 +26323,37 @@
         <v>397081.786886983</v>
       </c>
       <c r="F2" t="n">
-        <v>397081.7868869829</v>
+        <v>397081.786886983</v>
       </c>
       <c r="G2" t="n">
-        <v>397081.7868869829</v>
+        <v>397081.786886983</v>
       </c>
       <c r="H2" t="n">
         <v>397081.786886983</v>
       </c>
       <c r="I2" t="n">
-        <v>397081.786886983</v>
+        <v>397081.7868869829</v>
       </c>
       <c r="J2" t="n">
-        <v>397081.7868869831</v>
+        <v>397081.7868869829</v>
       </c>
       <c r="K2" t="n">
+        <v>397081.7868869832</v>
+      </c>
+      <c r="L2" t="n">
         <v>397081.7868869829</v>
       </c>
-      <c r="L2" t="n">
-        <v>397081.7868869831</v>
-      </c>
       <c r="M2" t="n">
-        <v>397383.9705399406</v>
+        <v>397383.9705399411</v>
       </c>
       <c r="N2" t="n">
-        <v>410520.8849321415</v>
+        <v>410520.8849321414</v>
       </c>
       <c r="O2" t="n">
+        <v>410520.8849321419</v>
+      </c>
+      <c r="P2" t="n">
         <v>410520.8849321416</v>
-      </c>
-      <c r="P2" t="n">
-        <v>410520.8849321415</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934069</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696693</v>
+        <v>130487.3190696691</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414961</v>
+        <v>36735.10506414973</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918989</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
+        <v>18148.49231918992</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="J4" t="n">
         <v>18148.49231918991</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18148.49231918993</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="M4" t="n">
         <v>18496.05294811453</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.653297409</v>
       </c>
       <c r="O4" t="n">
         <v>33605.65329740896</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371366</v>
@@ -26497,7 +26497,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96472.31657955461</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-445654.7592029403</v>
+        <v>-445654.7592029404</v>
       </c>
       <c r="C6" t="n">
         <v>144313.1200116041</v>
       </c>
       <c r="D6" t="n">
-        <v>144313.1200116041</v>
+        <v>144313.120011604</v>
       </c>
       <c r="E6" t="n">
-        <v>-444827.6376793273</v>
+        <v>-444894.8331695533</v>
       </c>
       <c r="F6" t="n">
-        <v>282549.7763140794</v>
+        <v>282482.5808238536</v>
       </c>
       <c r="G6" t="n">
-        <v>282549.7763140794</v>
+        <v>282482.5808238536</v>
       </c>
       <c r="H6" t="n">
-        <v>282549.7763140794</v>
+        <v>282482.5808238536</v>
       </c>
       <c r="I6" t="n">
-        <v>282549.7763140794</v>
+        <v>282482.5808238535</v>
       </c>
       <c r="J6" t="n">
-        <v>106126.5571214866</v>
+        <v>106059.3616312606</v>
       </c>
       <c r="K6" t="n">
-        <v>282549.7763140793</v>
+        <v>282482.5808238538</v>
       </c>
       <c r="L6" t="n">
-        <v>282549.7763140795</v>
+        <v>282482.5808238535</v>
       </c>
       <c r="M6" t="n">
-        <v>151928.2819426022</v>
+        <v>151862.5973706419</v>
       </c>
       <c r="N6" t="n">
-        <v>239847.4555564808</v>
+        <v>239847.4555564806</v>
       </c>
       <c r="O6" t="n">
         <v>276582.5606206306</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405521</v>
+        <v>1.056255288405402</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545555</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405521</v>
+        <v>1.056255288405402</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018701</v>
+        <v>45.91888133018716</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762115</v>
+        <v>712.0330363762118</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.225657850375</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>329.3216894122473</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>45.21033383841562</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27439,10 +27439,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,16 +27540,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>12.48683429008034</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>232.0474423175574</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1613262832390774</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>76.51544538689529</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>171.2856835255142</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27789,7 +27789,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>27.38738814000504</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923383</v>
@@ -27819,7 +27819,7 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>44.47535211858298</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>87.88390046306426</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>75.9575352435776</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>169.2138872808331</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-6.323830348264892e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="27">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405521</v>
+        <v>1.056255288405402</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405521</v>
+        <v>1.056255288405402</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405521</v>
+        <v>1.056255288405402</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405521</v>
+        <v>1.056255288405402</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405521</v>
+        <v>1.056255288405402</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405521</v>
+        <v>1.056255288405402</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405521</v>
+        <v>1.056255288405402</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405521</v>
+        <v>1.056255288405402</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405521</v>
+        <v>1.056255288405402</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405521</v>
+        <v>1.056255288405402</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405521</v>
+        <v>1.056255288405402</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405521</v>
+        <v>1.056255288405402</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405521</v>
+        <v>1.056255288405402</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405521</v>
+        <v>1.056255288405402</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405521</v>
+        <v>1.056255288405402</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405521</v>
+        <v>1.056255288405402</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405521</v>
+        <v>1.056255288405402</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405521</v>
+        <v>1.056255288405402</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405521</v>
+        <v>1.056255288405402</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405521</v>
+        <v>1.056255288405402</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405521</v>
+        <v>1.056255288405402</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405521</v>
+        <v>1.056255288405402</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405521</v>
+        <v>1.056255288405402</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405521</v>
+        <v>1.056255288405402</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31522,7 +31522,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,7 +31534,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119865</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33515,7 +33515,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33746,7 +33746,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262129</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>563.2406960631366</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
         <v>873.2513289427826</v>
@@ -35656,19 +35656,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>867.4697571238434</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>703.3044639766117</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35887,22 +35887,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>422.5701297360084</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>198.4178976040564</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>740.8875257003393</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>331.1491914695948</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>840.4047037678382</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36616,7 +36616,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
@@ -36835,22 +36835,22 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>472.3906877514211</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>742.1016362021759</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>800.292698040015</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37081,10 +37081,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>684.4630967757926</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
@@ -37163,7 +37163,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37306,28 +37306,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>419.4651718365622</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37394,7 +37394,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147175</v>
+        <v>46.63467190147162</v>
       </c>
       <c r="K37" t="n">
-        <v>207.1039148327251</v>
+        <v>207.103914832725</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586037</v>
+        <v>320.8136274586035</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818893</v>
+        <v>348.6896346818892</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559456</v>
+        <v>345.9132014559455</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110453</v>
+        <v>303.4093855110452</v>
       </c>
       <c r="P37" t="n">
-        <v>236.0133264335159</v>
+        <v>236.0133264335158</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629918</v>
+        <v>79.45049382629905</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>897.0044190605962</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861326</v>
@@ -37716,7 +37716,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37780,19 +37780,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>803.4886170813098</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -38017,13 +38017,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>526.3796627754316</v>
       </c>
       <c r="L44" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
@@ -38032,13 +38032,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
